--- a/CS_445_AI-10-Sprint_Backlog.xlsx
+++ b/CS_445_AI-10-Sprint_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Duy Tân\Năm 4\Đồ án chuyên ngành_CS445\Gruop-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D39E0-7DCA-4DD2-BFDB-FB7FA4F2CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790DCEA-6DF9-4B42-AD3F-3CE6481C3511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="166">
   <si>
     <t>Tên dự án:</t>
   </si>
@@ -1454,31 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1491,14 +1466,39 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2923,10 +2923,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3010,16 +3010,16 @@
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="30.75" customHeight="1">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="139"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="143" t="s">
+      <c r="N7" s="145"/>
+      <c r="O7" s="147" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="11"/>
@@ -3040,8 +3040,8 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="32"/>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -3536,7 +3536,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="136"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="53" t="s">
         <v>34</v>
       </c>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="136"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="53" t="s">
         <v>35</v>
       </c>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="137"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="53" t="s">
         <v>36</v>
       </c>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1">
       <c r="A24" s="32"/>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="148" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -3794,7 +3794,7 @@
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="136"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="53" t="s">
         <v>39</v>
       </c>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="32"/>
-      <c r="B26" s="136"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="53" t="s">
         <v>40</v>
       </c>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="32"/>
-      <c r="B27" s="137"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="53" t="s">
         <v>41</v>
       </c>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1">
       <c r="A28" s="32"/>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="148" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="53" t="s">
@@ -4052,7 +4052,7 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="136"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="53" t="s">
         <v>44</v>
       </c>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="136"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="53" t="s">
         <v>154</v>
       </c>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="137"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="53" t="s">
         <v>134</v>
       </c>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1">
       <c r="A32" s="32"/>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="148" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="53" t="s">
@@ -4310,7 +4310,7 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1">
       <c r="A33" s="32"/>
-      <c r="B33" s="136"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="53" t="s">
         <v>50</v>
       </c>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="32"/>
-      <c r="B34" s="136"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="53" t="s">
         <v>51</v>
       </c>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="32"/>
-      <c r="B35" s="137"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="53" t="s">
         <v>52</v>
       </c>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="148" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="53" t="s">
@@ -4568,7 +4568,7 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="32"/>
-      <c r="B37" s="136"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="53" t="s">
         <v>56</v>
       </c>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="32"/>
-      <c r="B38" s="136"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="53" t="s">
         <v>57</v>
       </c>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="137"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="53" t="s">
         <v>59</v>
       </c>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="32"/>
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="148" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="53" t="s">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="32"/>
-      <c r="B41" s="136"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="53" t="s">
         <v>63</v>
       </c>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="32"/>
-      <c r="B42" s="136"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="53" t="s">
         <v>64</v>
       </c>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="32"/>
-      <c r="B43" s="137"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="53" t="s">
         <v>66</v>
       </c>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="50" t="s">
@@ -5680,7 +5680,7 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="136"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="53" t="s">
         <v>34</v>
       </c>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="136"/>
+      <c r="B57" s="149"/>
       <c r="C57" s="53" t="s">
         <v>35</v>
       </c>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="137"/>
+      <c r="B58" s="146"/>
       <c r="C58" s="53" t="s">
         <v>36</v>
       </c>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="A59" s="32"/>
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="148" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -5938,7 +5938,7 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1">
       <c r="A60" s="32"/>
-      <c r="B60" s="136"/>
+      <c r="B60" s="149"/>
       <c r="C60" s="53" t="s">
         <v>39</v>
       </c>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1">
       <c r="A61" s="32"/>
-      <c r="B61" s="136"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="53" t="s">
         <v>40</v>
       </c>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="137"/>
+      <c r="B62" s="146"/>
       <c r="C62" s="53" t="s">
         <v>41</v>
       </c>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1">
       <c r="A63" s="32"/>
-      <c r="B63" s="135" t="s">
+      <c r="B63" s="148" t="s">
         <v>42</v>
       </c>
       <c r="C63" s="53" t="s">
@@ -6196,7 +6196,7 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1">
       <c r="A64" s="32"/>
-      <c r="B64" s="136"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="53" t="s">
         <v>44</v>
       </c>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="32"/>
-      <c r="B65" s="136"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="53" t="s">
         <v>45</v>
       </c>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="32"/>
-      <c r="B66" s="137"/>
+      <c r="B66" s="146"/>
       <c r="C66" s="53" t="s">
         <v>46</v>
       </c>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="135" t="s">
+      <c r="B67" s="148" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="53" t="s">
@@ -6454,7 +6454,7 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="136"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="53" t="s">
         <v>50</v>
       </c>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="136"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="53" t="s">
         <v>51</v>
       </c>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="137"/>
+      <c r="B70" s="146"/>
       <c r="C70" s="53" t="s">
         <v>52</v>
       </c>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="135" t="s">
+      <c r="B71" s="148" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="53" t="s">
@@ -6712,7 +6712,7 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="136"/>
+      <c r="B72" s="149"/>
       <c r="C72" s="53" t="s">
         <v>56</v>
       </c>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
       <c r="A73" s="32"/>
-      <c r="B73" s="136"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="53" t="s">
         <v>57</v>
       </c>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="137"/>
+      <c r="B74" s="146"/>
       <c r="C74" s="53" t="s">
         <v>59</v>
       </c>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="135" t="s">
+      <c r="B75" s="148" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -6970,7 +6970,7 @@
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="136"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="53" t="s">
         <v>63</v>
       </c>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="136"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="53" t="s">
         <v>64</v>
       </c>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="137"/>
+      <c r="B78" s="146"/>
       <c r="C78" s="53" t="s">
         <v>66</v>
       </c>
@@ -10807,11 +10807,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B71:B74"/>
@@ -10823,6 +10818,11 @@
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10834,8 +10834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T984"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10854,17 +10854,17 @@
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="136" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10882,7 +10882,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="137" t="s">
         <v>164</v>
       </c>
       <c r="N4" s="95"/>
@@ -11326,13 +11326,15 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="32"/>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="148" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="51" t="s">
+        <v>153</v>
+      </c>
       <c r="E20" s="52" t="s">
         <v>82</v>
       </c>
@@ -11384,11 +11386,13 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="136"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="51" t="s">
+        <v>153</v>
+      </c>
       <c r="E21" s="52" t="s">
         <v>82</v>
       </c>
@@ -11440,11 +11444,13 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="136"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="51" t="s">
+        <v>153</v>
+      </c>
       <c r="E22" s="52" t="s">
         <v>85</v>
       </c>
@@ -11496,11 +11502,13 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="137"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="52" t="s">
         <v>85</v>
       </c>
@@ -11552,13 +11560,15 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="32"/>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="148" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E24" s="52" t="s">
         <v>89</v>
       </c>
@@ -11610,11 +11620,13 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="136"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E25" s="52" t="s">
         <v>89</v>
       </c>
@@ -11666,11 +11678,13 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="32"/>
-      <c r="B26" s="136"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E26" s="52" t="s">
         <v>92</v>
       </c>
@@ -11722,11 +11736,13 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="32"/>
-      <c r="B27" s="137"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="52" t="s">
         <v>92</v>
       </c>
@@ -11778,13 +11794,15 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="32"/>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="150" t="s">
         <v>158</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E28" s="115" t="s">
         <v>95</v>
       </c>
@@ -11836,11 +11854,13 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="136"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E29" s="115" t="s">
         <v>95</v>
       </c>
@@ -11892,11 +11912,13 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="136"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E30" s="115" t="s">
         <v>98</v>
       </c>
@@ -11948,11 +11970,13 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="137"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="51"/>
+      <c r="D31" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="E31" s="115" t="s">
         <v>98</v>
       </c>
@@ -12004,13 +12028,15 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="32"/>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="148" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="54" t="s">
+        <v>152</v>
+      </c>
       <c r="E32" s="115" t="s">
         <v>102</v>
       </c>
@@ -12062,11 +12088,13 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="32"/>
-      <c r="B33" s="136"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="51" t="s">
+        <v>152</v>
+      </c>
       <c r="E33" s="115" t="s">
         <v>102</v>
       </c>
@@ -12118,11 +12146,13 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="32"/>
-      <c r="B34" s="136"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="51" t="s">
+        <v>152</v>
+      </c>
       <c r="E34" s="115" t="s">
         <v>105</v>
       </c>
@@ -12174,7 +12204,7 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="32"/>
-      <c r="B35" s="137"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="58" t="s">
         <v>106</v>
       </c>
@@ -12357,63 +12387,63 @@
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="42">
-        <f>SUM(F16:F37)</f>
+        <f t="shared" ref="F38:T38" si="0">SUM(F16:F37)</f>
         <v>96</v>
       </c>
       <c r="G38" s="42">
-        <f>SUM(G16:G37)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="H38" s="42">
-        <f>SUM(H16:H37)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="I38" s="42">
-        <f>SUM(I16:I37)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J38" s="42">
-        <f>SUM(J16:J37)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="K38" s="42">
-        <f>SUM(K16:K37)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="L38" s="42">
-        <f>SUM(L16:L37)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="M38" s="42">
-        <f>SUM(M16:M37)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="N38" s="42">
-        <f>SUM(N16:N37)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="O38" s="42">
-        <f>SUM(O16:O37)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="P38" s="42">
-        <f>SUM(P16:P37)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Q38" s="42">
-        <f>SUM(Q16:Q37)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="R38" s="42">
-        <f>SUM(R16:R37)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S38" s="42">
-        <f>SUM(S16:S37)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T38" s="42">
-        <f>SUM(T16:T37)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -12722,7 +12752,7 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="125"/>
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="148" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -12780,7 +12810,7 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="125"/>
-      <c r="B47" s="136"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="53" t="s">
         <v>83</v>
       </c>
@@ -12836,7 +12866,7 @@
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1">
       <c r="A48" s="125"/>
-      <c r="B48" s="136"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="53" t="s">
         <v>84</v>
       </c>
@@ -12891,7 +12921,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="17.25" customHeight="1">
-      <c r="B49" s="137"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="53" t="s">
         <v>86</v>
       </c>
@@ -12947,7 +12977,7 @@
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1">
       <c r="A50" s="32"/>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="148" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="114" t="s">
@@ -13005,7 +13035,7 @@
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1">
       <c r="A51" s="32"/>
-      <c r="B51" s="136"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="114" t="s">
         <v>90</v>
       </c>
@@ -13061,7 +13091,7 @@
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1">
       <c r="A52" s="32"/>
-      <c r="B52" s="136"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="114" t="s">
         <v>91</v>
       </c>
@@ -13117,7 +13147,7 @@
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1">
       <c r="A53" s="32"/>
-      <c r="B53" s="137"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="114" t="s">
         <v>93</v>
       </c>
@@ -13173,7 +13203,7 @@
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1">
       <c r="A54" s="32"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="150" t="s">
         <v>158</v>
       </c>
       <c r="C54" s="53" t="s">
@@ -13231,7 +13261,7 @@
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="136"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="53" t="s">
         <v>96</v>
       </c>
@@ -13287,7 +13317,7 @@
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="136"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="53" t="s">
         <v>97</v>
       </c>
@@ -13343,7 +13373,7 @@
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="137"/>
+      <c r="B57" s="146"/>
       <c r="C57" s="53" t="s">
         <v>99</v>
       </c>
@@ -13399,7 +13429,7 @@
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="148" t="s">
         <v>100</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -13457,7 +13487,7 @@
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="32"/>
-      <c r="B59" s="136"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="119" t="s">
         <v>103</v>
       </c>
@@ -13513,7 +13543,7 @@
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1">
       <c r="A60" s="32"/>
-      <c r="B60" s="136"/>
+      <c r="B60" s="149"/>
       <c r="C60" s="58" t="s">
         <v>104</v>
       </c>
@@ -13569,7 +13599,7 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1">
       <c r="A61" s="32"/>
-      <c r="B61" s="137"/>
+      <c r="B61" s="146"/>
       <c r="C61" s="58" t="s">
         <v>106</v>
       </c>
@@ -13752,63 +13782,63 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="42">
-        <f t="shared" ref="F64:T64" si="0">SUM(F42:F63)</f>
+        <f t="shared" ref="F64:T64" si="1">SUM(F42:F63)</f>
         <v>95</v>
       </c>
       <c r="G64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="H64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="I64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="J64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="K64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="L64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="M64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="N64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="O64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="P64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="R64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="T64" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -16617,8 +16647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E71"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16635,10 +16665,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="4" t="s">
@@ -16824,46 +16854,46 @@
       <c r="F15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="138">
         <v>45635</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="138">
         <v>45636</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="138">
         <v>45637</v>
       </c>
-      <c r="J15" s="149">
+      <c r="J15" s="138">
         <v>45638</v>
       </c>
-      <c r="K15" s="149">
+      <c r="K15" s="138">
         <v>45639</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="138">
         <v>45640</v>
       </c>
-      <c r="M15" s="149">
+      <c r="M15" s="138">
         <v>45641</v>
       </c>
-      <c r="N15" s="149">
+      <c r="N15" s="138">
         <v>45642</v>
       </c>
-      <c r="O15" s="149">
+      <c r="O15" s="138">
         <v>45643</v>
       </c>
-      <c r="P15" s="149">
+      <c r="P15" s="138">
         <v>45644</v>
       </c>
-      <c r="Q15" s="149">
+      <c r="Q15" s="138">
         <v>45645</v>
       </c>
-      <c r="R15" s="149">
+      <c r="R15" s="138">
         <v>45646</v>
       </c>
-      <c r="S15" s="149">
+      <c r="S15" s="138">
         <v>45647</v>
       </c>
-      <c r="T15" s="149">
+      <c r="T15" s="138">
         <v>45648</v>
       </c>
     </row>
@@ -16876,7 +16906,7 @@
       <c r="D16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="139" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="36">
@@ -16934,7 +16964,7 @@
       <c r="D17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="151" t="s">
+      <c r="E17" s="139" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="36">
@@ -17100,7 +17130,7 @@
     </row>
     <row r="20" spans="1:20" ht="16.5">
       <c r="A20" s="32"/>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="148" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="114" t="s">
@@ -17109,7 +17139,7 @@
       <c r="D20" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="152" t="s">
+      <c r="E20" s="140" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="42">
@@ -17160,14 +17190,14 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="136"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="140" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="42">
@@ -17218,14 +17248,14 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="136"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="114" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="140" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="42">
@@ -17276,14 +17306,14 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="137"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="140" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="42">
@@ -17334,7 +17364,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="32"/>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="148" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -17343,7 +17373,7 @@
       <c r="D24" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="152" t="s">
+      <c r="E24" s="140" t="s">
         <v>82</v>
       </c>
       <c r="F24" s="42">
@@ -17394,14 +17424,14 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="136"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="53" t="s">
         <v>122</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="152" t="s">
+      <c r="E25" s="140" t="s">
         <v>82</v>
       </c>
       <c r="F25" s="42">
@@ -17452,14 +17482,14 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="32"/>
-      <c r="B26" s="136"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="53" t="s">
         <v>123</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="152" t="s">
+      <c r="E26" s="140" t="s">
         <v>85</v>
       </c>
       <c r="F26" s="42">
@@ -17510,14 +17540,14 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="32"/>
-      <c r="B27" s="137"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="53" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="140" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="42">
@@ -17568,7 +17598,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="32"/>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="148" t="s">
         <v>125</v>
       </c>
       <c r="C28" s="114" t="s">
@@ -17577,7 +17607,7 @@
       <c r="D28" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="152" t="s">
+      <c r="E28" s="140" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="42">
@@ -17628,14 +17658,14 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="136"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="114" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="152" t="s">
+      <c r="E29" s="140" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="42">
@@ -17686,14 +17716,14 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="136"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="114" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="152" t="s">
+      <c r="E30" s="140" t="s">
         <v>92</v>
       </c>
       <c r="F30" s="42">
@@ -17744,14 +17774,14 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="137"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="53" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="140" t="s">
         <v>92</v>
       </c>
       <c r="F31" s="42">
@@ -17802,7 +17832,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="32"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="150" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="53" t="s">
@@ -17811,7 +17841,7 @@
       <c r="D32" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="152" t="s">
+      <c r="E32" s="140" t="s">
         <v>95</v>
       </c>
       <c r="F32" s="42">
@@ -17862,14 +17892,14 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="32"/>
-      <c r="B33" s="136"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="53" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="152" t="s">
+      <c r="E33" s="140" t="s">
         <v>95</v>
       </c>
       <c r="F33" s="42">
@@ -17920,14 +17950,14 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="32"/>
-      <c r="B34" s="136"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="53" t="s">
         <v>133</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="152" t="s">
+      <c r="E34" s="140" t="s">
         <v>98</v>
       </c>
       <c r="F34" s="42">
@@ -17978,14 +18008,14 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="32"/>
-      <c r="B35" s="137"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="53" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="152" t="s">
+      <c r="E35" s="140" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="42">
@@ -18036,7 +18066,7 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="148" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -18045,7 +18075,7 @@
       <c r="D36" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="152" t="s">
+      <c r="E36" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="42">
@@ -18096,14 +18126,14 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="32"/>
-      <c r="B37" s="136"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="119" t="s">
         <v>137</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="152" t="s">
+      <c r="E37" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F37" s="42">
@@ -18154,14 +18184,14 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="32"/>
-      <c r="B38" s="136"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="58" t="s">
         <v>138</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="152" t="s">
+      <c r="E38" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="42">
@@ -18212,14 +18242,14 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="137"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="58" t="s">
         <v>139</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="152" t="s">
+      <c r="E39" s="140" t="s">
         <v>105</v>
       </c>
       <c r="F39" s="42">
@@ -18279,7 +18309,7 @@
       <c r="D40" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="152" t="s">
+      <c r="E40" s="140" t="s">
         <v>109</v>
       </c>
       <c r="F40" s="42">
@@ -18337,7 +18367,7 @@
       <c r="D41" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="152" t="s">
+      <c r="E41" s="140" t="s">
         <v>111</v>
       </c>
       <c r="F41" s="42">
@@ -18483,46 +18513,46 @@
       <c r="F45" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="149">
+      <c r="G45" s="138">
         <v>45635</v>
       </c>
-      <c r="H45" s="149">
+      <c r="H45" s="138">
         <v>45636</v>
       </c>
-      <c r="I45" s="149">
+      <c r="I45" s="138">
         <v>45637</v>
       </c>
-      <c r="J45" s="149">
+      <c r="J45" s="138">
         <v>45638</v>
       </c>
-      <c r="K45" s="149">
+      <c r="K45" s="138">
         <v>45639</v>
       </c>
-      <c r="L45" s="149">
+      <c r="L45" s="138">
         <v>45640</v>
       </c>
-      <c r="M45" s="149">
+      <c r="M45" s="138">
         <v>45641</v>
       </c>
-      <c r="N45" s="149">
+      <c r="N45" s="138">
         <v>45642</v>
       </c>
-      <c r="O45" s="149">
+      <c r="O45" s="138">
         <v>45643</v>
       </c>
-      <c r="P45" s="149">
+      <c r="P45" s="138">
         <v>45644</v>
       </c>
-      <c r="Q45" s="149">
+      <c r="Q45" s="138">
         <v>45645</v>
       </c>
-      <c r="R45" s="149">
+      <c r="R45" s="138">
         <v>45646</v>
       </c>
-      <c r="S45" s="149">
+      <c r="S45" s="138">
         <v>45647</v>
       </c>
-      <c r="T45" s="149">
+      <c r="T45" s="138">
         <v>45648</v>
       </c>
     </row>
@@ -18535,7 +18565,7 @@
       <c r="D46" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="151" t="s">
+      <c r="E46" s="139" t="s">
         <v>65</v>
       </c>
       <c r="F46" s="36">
@@ -18593,7 +18623,7 @@
       <c r="D47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="151" t="s">
+      <c r="E47" s="139" t="s">
         <v>69</v>
       </c>
       <c r="F47" s="36">
@@ -18760,7 +18790,7 @@
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1">
       <c r="A50" s="122"/>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="148" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="114" t="s">
@@ -18769,7 +18799,7 @@
       <c r="D50" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="152" t="s">
+      <c r="E50" s="140" t="s">
         <v>71</v>
       </c>
       <c r="F50" s="42">
@@ -18820,14 +18850,14 @@
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1">
       <c r="A51" s="122"/>
-      <c r="B51" s="136"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="152" t="s">
+      <c r="E51" s="140" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="42">
@@ -18878,14 +18908,14 @@
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1">
       <c r="A52" s="122"/>
-      <c r="B52" s="136"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="146" t="s">
+      <c r="D52" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="152" t="s">
+      <c r="E52" s="140" t="s">
         <v>79</v>
       </c>
       <c r="F52" s="42">
@@ -18936,14 +18966,14 @@
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1">
       <c r="A53" s="124"/>
-      <c r="B53" s="137"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="152" t="s">
+      <c r="E53" s="140" t="s">
         <v>79</v>
       </c>
       <c r="F53" s="42">
@@ -18994,7 +19024,7 @@
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1">
       <c r="A54" s="125"/>
-      <c r="B54" s="135" t="s">
+      <c r="B54" s="148" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="53" t="s">
@@ -19003,7 +19033,7 @@
       <c r="D54" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="140" t="s">
         <v>82</v>
       </c>
       <c r="F54" s="42">
@@ -19054,14 +19084,14 @@
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1">
       <c r="A55" s="125"/>
-      <c r="B55" s="136"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="53" t="s">
         <v>122</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="152" t="s">
+      <c r="E55" s="140" t="s">
         <v>82</v>
       </c>
       <c r="F55" s="42">
@@ -19112,14 +19142,14 @@
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1">
       <c r="A56" s="125"/>
-      <c r="B56" s="136"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="53" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="152" t="s">
+      <c r="E56" s="140" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="42">
@@ -19169,14 +19199,14 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="17.25" customHeight="1">
-      <c r="B57" s="137"/>
+      <c r="B57" s="146"/>
       <c r="C57" s="53" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="152" t="s">
+      <c r="E57" s="140" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="42">
@@ -19227,7 +19257,7 @@
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="148" t="s">
         <v>125</v>
       </c>
       <c r="C58" s="114" t="s">
@@ -19236,7 +19266,7 @@
       <c r="D58" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E58" s="152" t="s">
+      <c r="E58" s="140" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="42">
@@ -19287,14 +19317,14 @@
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="32"/>
-      <c r="B59" s="136"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="114" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="152" t="s">
+      <c r="E59" s="140" t="s">
         <v>89</v>
       </c>
       <c r="F59" s="42">
@@ -19345,14 +19375,14 @@
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1">
       <c r="A60" s="32"/>
-      <c r="B60" s="136"/>
+      <c r="B60" s="149"/>
       <c r="C60" s="114" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="152" t="s">
+      <c r="E60" s="140" t="s">
         <v>92</v>
       </c>
       <c r="F60" s="42">
@@ -19403,14 +19433,14 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1">
       <c r="A61" s="32"/>
-      <c r="B61" s="137"/>
+      <c r="B61" s="146"/>
       <c r="C61" s="53" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="152" t="s">
+      <c r="E61" s="140" t="s">
         <v>92</v>
       </c>
       <c r="F61" s="42">
@@ -19461,7 +19491,7 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="150" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="53" t="s">
@@ -19470,7 +19500,7 @@
       <c r="D62" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="152" t="s">
+      <c r="E62" s="140" t="s">
         <v>95</v>
       </c>
       <c r="F62" s="42">
@@ -19521,14 +19551,14 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1">
       <c r="A63" s="32"/>
-      <c r="B63" s="136"/>
+      <c r="B63" s="149"/>
       <c r="C63" s="53" t="s">
         <v>132</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="152" t="s">
+      <c r="E63" s="140" t="s">
         <v>95</v>
       </c>
       <c r="F63" s="42">
@@ -19579,14 +19609,14 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1">
       <c r="A64" s="32"/>
-      <c r="B64" s="136"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="146" t="s">
+      <c r="D64" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="152" t="s">
+      <c r="E64" s="140" t="s">
         <v>98</v>
       </c>
       <c r="F64" s="42">
@@ -19637,14 +19667,14 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1">
       <c r="A65" s="32"/>
-      <c r="B65" s="137"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="53" t="s">
         <v>134</v>
       </c>
       <c r="D65" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="152" t="s">
+      <c r="E65" s="140" t="s">
         <v>98</v>
       </c>
       <c r="F65" s="42">
@@ -19695,7 +19725,7 @@
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1">
       <c r="A66" s="32"/>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="148" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -19704,7 +19734,7 @@
       <c r="D66" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="152" t="s">
+      <c r="E66" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F66" s="42">
@@ -19755,14 +19785,14 @@
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="136"/>
+      <c r="B67" s="149"/>
       <c r="C67" s="119" t="s">
         <v>137</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="152" t="s">
+      <c r="E67" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F67" s="42">
@@ -19813,14 +19843,14 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="136"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="152" t="s">
+      <c r="E68" s="140" t="s">
         <v>102</v>
       </c>
       <c r="F68" s="42">
@@ -19871,14 +19901,14 @@
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="137"/>
+      <c r="B69" s="146"/>
       <c r="C69" s="58" t="s">
         <v>139</v>
       </c>
       <c r="D69" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="152" t="s">
+      <c r="E69" s="140" t="s">
         <v>105</v>
       </c>
       <c r="F69" s="42">
@@ -19938,7 +19968,7 @@
       <c r="D70" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="152" t="s">
+      <c r="E70" s="140" t="s">
         <v>109</v>
       </c>
       <c r="F70" s="42">
@@ -19996,7 +20026,7 @@
       <c r="D71" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="152" t="s">
+      <c r="E71" s="140" t="s">
         <v>111</v>
       </c>
       <c r="F71" s="42">
@@ -22899,17 +22929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22922,7 +22952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -22946,30 +22976,30 @@
   <sheetData>
     <row r="5" spans="4:16" ht="16.5">
       <c r="D5" s="133"/>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="150" t="s">
+      <c r="F5" s="142"/>
+      <c r="G5" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="150" t="s">
+      <c r="H5" s="142"/>
+      <c r="I5" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="139"/>
-      <c r="K5" s="150" t="s">
+      <c r="J5" s="142"/>
+      <c r="K5" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="145" t="s">
+      <c r="L5" s="142"/>
+      <c r="M5" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="139"/>
-      <c r="O5" s="145" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="P5" s="139"/>
+      <c r="P5" s="142"/>
     </row>
     <row r="6" spans="4:16" ht="16.5">
       <c r="D6" s="133"/>
